--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18090"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -31,7 +31,7 @@
     <t>冷却时间</t>
   </si>
   <si>
-    <t>效果</t>
+    <t>技能描述</t>
   </si>
   <si>
     <t>Name</t>
@@ -43,7 +43,16 @@
     <t>Cooldown</t>
   </si>
   <si>
-    <t>Effects</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Effect1</t>
+  </si>
+  <si>
+    <t>Effect2</t>
+  </si>
+  <si>
+    <t>Effect3</t>
   </si>
   <si>
     <t>int</t>
@@ -59,6 +68,18 @@
   </si>
   <si>
     <t>主动</t>
+  </si>
+  <si>
+    <t>黑火球术: 净化</t>
+  </si>
+  <si>
+    <t>Damage:1001</t>
+  </si>
+  <si>
+    <t>AddStatus:1001</t>
+  </si>
+  <si>
+    <t>净化</t>
   </si>
 </sst>
 </file>
@@ -93,6 +114,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -100,15 +135,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,33 +165,65 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,61 +244,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,181 +280,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +471,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,31 +516,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,165 +561,161 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,20 +1074,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="6" width="9.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="38.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1074,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:7">
+    <row r="3" spans="3:10">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1090,8 +1114,11 @@
       <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" spans="3:10">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1107,36 +1134,66 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="3:7">
+    <row r="5" spans="3:10">
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:6">
+    <row r="6" s="1" customFormat="1" spans="3:10">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="27810" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,10 @@
     <t>黑火球术: 净化</t>
   </si>
   <si>
-    <t>Damage:1001</t>
-  </si>
-  <si>
-    <t>AddStatus:1001</t>
+    <t>Damage=1001</t>
+  </si>
+  <si>
+    <t>AddStatus=1001</t>
   </si>
   <si>
     <t>净化</t>
@@ -121,6 +121,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -128,21 +143,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -151,7 +175,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,101 +251,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,31 +280,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,43 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,13 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,85 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,33 +471,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -512,6 +485,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,28 +554,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,10 +577,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,133 +589,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1089,7 +1089,7 @@
     <col min="7" max="7" width="38.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -28,6 +28,9 @@
     <t>技能类型</t>
   </si>
   <si>
+    <t>目标选择</t>
+  </si>
+  <si>
     <t>冷却时间</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>Type</t>
   </si>
   <si>
+    <t>TargetSelect</t>
+  </si>
+  <si>
     <t>Cooldown</t>
   </si>
   <si>
@@ -70,16 +76,40 @@
     <t>主动</t>
   </si>
   <si>
-    <t>黑火球术: 净化</t>
+    <t>手动指定</t>
   </si>
   <si>
     <t>Damage=1001</t>
   </si>
   <si>
-    <t>AddStatus=1001</t>
+    <t>AddStatus=Weak</t>
+  </si>
+  <si>
+    <t>炎爆</t>
+  </si>
+  <si>
+    <t>固定区域场检测</t>
+  </si>
+  <si>
+    <t>Damage=1002</t>
+  </si>
+  <si>
+    <t>AddStatus=Vertigo</t>
+  </si>
+  <si>
+    <t>治愈</t>
+  </si>
+  <si>
+    <t>Cure=1003</t>
   </si>
   <si>
     <t>净化</t>
+  </si>
+  <si>
+    <t>血红激光炮</t>
+  </si>
+  <si>
+    <t>Damage=1004</t>
   </si>
 </sst>
 </file>
@@ -87,9 +117,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -114,6 +144,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -121,14 +166,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -136,16 +173,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,8 +219,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,63 +241,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,20 +294,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -280,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,21 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +519,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,6 +535,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,175 +581,190 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1074,23 +1113,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="6" width="9.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="4" max="5" width="9.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.75" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1098,76 +1139,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:10">
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="3:11">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="3:10">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="3:11">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
+    <row r="5" spans="3:11">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:10">
@@ -1175,30 +1225,97 @@
         <v>1001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:10">
+      <c r="C7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:10">
+      <c r="C8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:10">
+      <c r="C9" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F7 F8 F9">
+      <formula1>"手动指定,弹体碰撞检测,固定区域场检测"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E7 E8 E9">
       <formula1>"主动,被动"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27810" windowHeight="8430"/>
+    <workbookView windowWidth="31050" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -82,7 +82,7 @@
     <t>Damage=1001</t>
   </si>
   <si>
-    <t>AddStatus=Weak</t>
+    <t>AddStatus=1001</t>
   </si>
   <si>
     <t>炎爆</t>
@@ -94,7 +94,7 @@
     <t>Damage=1002</t>
   </si>
   <si>
-    <t>AddStatus=Vertigo</t>
+    <t>AddStatus=1002</t>
   </si>
   <si>
     <t>治愈</t>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Damage=1004</t>
+  </si>
+  <si>
+    <t>AddStatus=1004</t>
   </si>
 </sst>
 </file>
@@ -117,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -151,14 +154,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -170,6 +165,66 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,36 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -219,46 +244,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,21 +255,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +267,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -310,187 +313,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,22 +507,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +533,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,21 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -586,166 +604,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,7 +1119,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1308,15 +1311,17 @@
       <c r="I9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E7 E8 E9">
+      <formula1>"主动,被动"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F7 F8 F9">
       <formula1>"手动指定,弹体碰撞检测,固定区域场检测"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E7 E8 E9">
-      <formula1>"主动,被动"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\GitHub\EGamePlay\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D72C5A-93BF-4A7F-B466-B479770AB3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE12E1B-481F-49CF-B198-81E075A25E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="26100" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -98,12 +98,6 @@
   </si>
   <si>
     <t>血红激光炮</t>
-  </si>
-  <si>
-    <t>作用对象</t>
-  </si>
-  <si>
-    <t>触发概率</t>
   </si>
   <si>
     <t>伤害类型</t>
@@ -165,6 +159,14 @@
   </si>
   <si>
     <t>伤害取值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害作用对象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害触发概率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +220,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +230,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,29 +252,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -274,74 +283,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -361,7 +302,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -642,26 +583,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="5" width="9.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="16.125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="18.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="16.5" style="8" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="8" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -671,119 +612,119 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="8" t="s">
+      <c r="I3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="L3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="N4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="O4" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="8" t="s">
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -803,22 +744,23 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="L6" s="9" t="s">
+      <c r="I6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="9">
-        <v>10000</v>
-      </c>
-      <c r="N6" s="9" t="s">
+      <c r="M6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1">
@@ -836,22 +778,23 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="L7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="9">
+      <c r="I7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="5">
         <v>10000</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="K7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="5">
+        <v>800</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="9">
-        <v>800</v>
-      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="1">
@@ -869,16 +812,17 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="1">
@@ -896,22 +840,23 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="L9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="9">
+      <c r="I9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="5">
         <v>10000</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="K9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="5">
+        <v>3333</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="9">
-        <v>3333</v>
-      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -922,14 +867,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"手动指定,弹体碰撞检测,固定区域场检测"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N9" xr:uid="{5EEB58B3-2754-4308-9B5A-BE2104B58039}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K9" xr:uid="{5EEB58B3-2754-4308-9B5A-BE2104B58039}">
       <formula1>"魔法伤害,物理伤害,真实伤害"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L9" xr:uid="{22652442-FE6F-48CF-A163-9D88D1E25515}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I9" xr:uid="{22652442-FE6F-48CF-A163-9D88D1E25515}">
       <formula1>"技能目标,自身"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\GitHub\EGamePlay\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE12E1B-481F-49CF-B198-81E075A25E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D887ECB-591F-4E63-8E97-65230528DAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="26100" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -168,6 +168,15 @@
   <si>
     <t>伤害触发概率</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火弹</t>
+  </si>
+  <si>
+    <t>每命中一个目标后下一次伤害会减少20%，最低减到40%</t>
+  </si>
+  <si>
+    <t>弹体碰撞检测</t>
   </si>
 </sst>
 </file>
@@ -283,6 +292,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -302,7 +379,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -581,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -595,7 +672,7 @@
     <col min="4" max="5" width="9.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="41.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="12" style="4" customWidth="1"/>
     <col min="10" max="10" width="13.125" style="4" customWidth="1"/>
     <col min="11" max="11" width="16.125" style="4" customWidth="1"/>
@@ -858,19 +935,56 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
     </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="5">
+        <v>10000</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="5">
+        <v>3333</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"主动,被动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F9" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F10" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"手动指定,弹体碰撞检测,固定区域场检测"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K9" xr:uid="{5EEB58B3-2754-4308-9B5A-BE2104B58039}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K10" xr:uid="{5EEB58B3-2754-4308-9B5A-BE2104B58039}">
       <formula1>"魔法伤害,物理伤害,真实伤害"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I9" xr:uid="{22652442-FE6F-48CF-A163-9D88D1E25515}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I10" xr:uid="{22652442-FE6F-48CF-A163-9D88D1E25515}">
       <formula1>"技能目标,自身"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\GitHub\EGamePlay\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D887ECB-591F-4E63-8E97-65230528DAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB42129F-F56F-46C6-B97F-34107E99B587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -34,9 +34,6 @@
     <t>技能类型</t>
   </si>
   <si>
-    <t>目标选择</t>
-  </si>
-  <si>
     <t>冷却时间</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
   </si>
   <si>
     <t>炎爆</t>
-  </si>
-  <si>
-    <t>固定区域场检测</t>
   </si>
   <si>
     <t>治愈</t>
@@ -176,7 +170,36 @@
     <t>每命中一个目标后下一次伤害会减少20%，最低减到40%</t>
   </si>
   <si>
-    <t>弹体碰撞检测</t>
+    <t>目标阵营类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+  </si>
+  <si>
+    <t>TargetGroup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞检测</t>
+  </si>
+  <si>
+    <t>灵魂锁链</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件指定</t>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方</t>
   </si>
 </sst>
 </file>
@@ -658,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -670,25 +693,26 @@
     <col min="2" max="2" width="3.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="5" width="9.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="41.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="18.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="14.625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="16.5" style="8" customWidth="1"/>
-    <col min="15" max="15" width="11.75" style="8" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="13.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="41.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="14.625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="16.5" style="8" customWidth="1"/>
+    <col min="16" max="16" width="11.75" style="8" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -699,293 +723,360 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="9"/>
+      <c r="L3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>16</v>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="5">
-        <v>10000</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="N6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="11"/>
       <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="J7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="5">
         <v>10000</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="5">
+        <v>800</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="5">
-        <v>800</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="11"/>
       <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="11"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="J9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="5">
         <v>10000</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="5">
+        <v>3333</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="5">
-        <v>3333</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="11"/>
       <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="I10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="5">
         <v>10000</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="5">
+        <v>3333</v>
+      </c>
+      <c r="N10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="5">
-        <v>3333</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="11"/>
       <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E10" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E11 E12" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"主动,被动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F10" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"手动指定,弹体碰撞检测,固定区域场检测"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K10" xr:uid="{5EEB58B3-2754-4308-9B5A-BE2104B58039}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L10" xr:uid="{5EEB58B3-2754-4308-9B5A-BE2104B58039}">
       <formula1>"魔法伤害,物理伤害,真实伤害"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I10" xr:uid="{22652442-FE6F-48CF-A163-9D88D1E25515}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J10" xr:uid="{22652442-FE6F-48CF-A163-9D88D1E25515}">
       <formula1>"技能目标,自身"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F11 F12" xr:uid="{52BE5CC2-B155-40E1-8C62-F952546F682F}">
+      <formula1>"自身,己方,敌方"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G11 G12" xr:uid="{7F07CDB7-FA05-47C7-A572-6E3DD1375BB7}">
+      <formula1>"手动指定,碰撞检测,条件指定"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\GitHub\EGamePlay\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB42129F-F56F-46C6-B97F-34107E99B587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7833678F-773F-49B7-B573-F413A6252C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -200,6 +200,10 @@
   </si>
   <si>
     <t>己方</t>
+  </si>
+  <si>
+    <t>mini</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -681,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1060,10 +1064,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>201</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E11 E12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"主动,被动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L10" xr:uid="{5EEB58B3-2754-4308-9B5A-BE2104B58039}">
@@ -1072,10 +1096,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J10" xr:uid="{22652442-FE6F-48CF-A163-9D88D1E25515}">
       <formula1>"技能目标,自身"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F11 F12" xr:uid="{52BE5CC2-B155-40E1-8C62-F952546F682F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F13" xr:uid="{52BE5CC2-B155-40E1-8C62-F952546F682F}">
       <formula1>"自身,己方,敌方"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G11 G12" xr:uid="{7F07CDB7-FA05-47C7-A572-6E3DD1375BB7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G13" xr:uid="{7F07CDB7-FA05-47C7-A572-6E3DD1375BB7}">
       <formula1>"手动指定,碰撞检测,条件指定"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\GitHub\EGamePlay\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7833678F-773F-49B7-B573-F413A6252C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BB76B0-49DB-4DBE-B6B2-C1D270867800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -204,6 +204,13 @@
   <si>
     <t>mini</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身</t>
   </si>
 </sst>
 </file>
@@ -685,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1084,10 +1091,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E13" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"主动,被动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L10" xr:uid="{5EEB58B3-2754-4308-9B5A-BE2104B58039}">
@@ -1096,10 +1123,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J10" xr:uid="{22652442-FE6F-48CF-A163-9D88D1E25515}">
       <formula1>"技能目标,自身"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F13" xr:uid="{52BE5CC2-B155-40E1-8C62-F952546F682F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F14" xr:uid="{52BE5CC2-B155-40E1-8C62-F952546F682F}">
       <formula1>"自身,己方,敌方"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G13" xr:uid="{7F07CDB7-FA05-47C7-A572-6E3DD1375BB7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G14" xr:uid="{7F07CDB7-FA05-47C7-A572-6E3DD1375BB7}">
       <formula1>"手动指定,碰撞检测,条件指定"</formula1>
     </dataValidation>
   </dataValidations>
